--- a/Adimensionnement.xlsx
+++ b/Adimensionnement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blagn771\Documents\Aquaman\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blagn771\Documents\Aquaman\Aquaman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5DC6D9-5463-4F75-AE10-6E05208682C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FE2E7E-C596-4944-8171-60799B3B46F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="4128" windowWidth="23256" windowHeight="12576" xr2:uid="{CECACC56-8669-4314-B5FA-FCBDC609E522}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CECACC56-8669-4314-B5FA-FCBDC609E522}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -878,23 +878,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22BE12F1-66EF-411D-959D-2C33B6083256}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="23.21875" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="5" max="6" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="5" max="6" width="23.140625" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
-    <col min="9" max="9" width="23.21875" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" customWidth="1"/>
     <col min="10" max="10" width="23" customWidth="1"/>
-    <col min="11" max="11" width="23.21875" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -911,7 +911,7 @@
       </c>
       <c r="K1" s="22"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -922,7 +922,7 @@
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -947,9 +947,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
-        <v>7.3999999999999996E-2</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -968,10 +968,10 @@
       <c r="J4" s="25"/>
       <c r="K4" s="23">
         <f>I4*J9/A4</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
@@ -992,7 +992,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1026,7 +1026,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>4</v>
       </c>
@@ -1055,14 +1055,14 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
-        <v>7.3999999999999996E-2</v>
+        <v>7.1199999999999999E-2</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="1">
         <f>2*G9*A9</f>
-        <v>1.4800000000000001E-2</v>
+        <v>6.6358399999999998E-2</v>
       </c>
       <c r="E9" s="17">
         <v>1</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="6">
-        <v>0.1</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="I9" s="24">
         <f>3*2^5</f>
@@ -1080,14 +1080,14 @@
       </c>
       <c r="J9" s="25">
         <f>A9/I9</f>
-        <v>7.7083333333333333E-4</v>
+        <v>7.4166666666666662E-4</v>
       </c>
       <c r="K9" s="23">
         <f>B9/J9</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>5</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1151,7 +1151,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>10</v>
       </c>
@@ -1165,20 +1165,20 @@
       </c>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
-        <v>1.5</v>
+        <v>0.82</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="1"/>
       <c r="E14" s="17">
         <f>A14*C9/A4</f>
-        <v>0.30000000000000004</v>
+        <v>0.61139199999999994</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>11</v>
       </c>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>69</v>
       </c>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1214,7 +1214,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>15</v>
       </c>
@@ -1230,14 +1230,14 @@
       </c>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <f>0.5*B29*A4*A4</f>
-        <v>2.8064499999999994</v>
+        <v>4.0595124999999994</v>
       </c>
       <c r="B19" s="1">
         <f>F19*B29*(A4/E4)*(A4/E4)</f>
-        <v>2.8064499999999994</v>
+        <v>4.0595124999999994</v>
       </c>
       <c r="C19" s="1"/>
       <c r="E19" s="17">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>16</v>
       </c>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>17</v>
       </c>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1286,7 +1286,7 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>20</v>
       </c>
@@ -1302,7 +1302,7 @@
       </c>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1319,7 +1319,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>21</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>22</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1368,7 +1368,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>51</v>
       </c>
@@ -1382,7 +1382,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>1.07E-3</v>
       </c>
@@ -1394,12 +1394,12 @@
       </c>
       <c r="E29" s="6">
         <f>A4*A9*B29/A29</f>
-        <v>5245.7009345794386</v>
+        <v>6070.2990654205605</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>24</v>
       </c>
@@ -1411,7 +1411,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>50</v>
       </c>
@@ -1425,13 +1425,13 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>40</v>
       </c>
       <c r="I33" s="26"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
         <v>72</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F37" t="s">
         <v>74</v>
       </c>

--- a/Adimensionnement.xlsx
+++ b/Adimensionnement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blagn771\Documents\Aquaman\Aquaman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FE2E7E-C596-4944-8171-60799B3B46F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF01B3C-5C62-4300-8C0E-680E114E2B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CECACC56-8669-4314-B5FA-FCBDC609E522}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="80">
   <si>
     <t>Grandeurs réelles</t>
   </si>
@@ -381,6 +381,9 @@
   </si>
   <si>
     <t>eau de mer</t>
+  </si>
+  <si>
+    <t>25 deg</t>
   </si>
 </sst>
 </file>
@@ -879,7 +882,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1073,6 +1076,9 @@
       </c>
       <c r="G9" s="6">
         <v>0.46600000000000003</v>
+      </c>
+      <c r="H9" t="s">
+        <v>79</v>
       </c>
       <c r="I9" s="24">
         <f>3*2^5</f>

--- a/Adimensionnement.xlsx
+++ b/Adimensionnement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blagn771\Documents\Aquaman\Aquaman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF01B3C-5C62-4300-8C0E-680E114E2B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD85A0AC-1274-463A-B15F-81372CC9124D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CECACC56-8669-4314-B5FA-FCBDC609E522}"/>
   </bookViews>
@@ -882,7 +882,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1243,14 +1243,14 @@
       </c>
       <c r="B19" s="1">
         <f>F19*B29*(A4/E4)*(A4/E4)</f>
-        <v>4.0595124999999994</v>
+        <v>2.4357074999999999</v>
       </c>
       <c r="C19" s="1"/>
       <c r="E19" s="17">
         <v>1</v>
       </c>
       <c r="F19" s="6">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G19" s="6"/>
     </row>
@@ -1457,21 +1457,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100343AB94E490C1E469C434E1FE83E21E8" ma:contentTypeVersion="8" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="4a945fd916df10b55939949b74db3e29">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="30d683a2-8968-4bab-ab75-5e7ac92a4140" xmlns:ns4="7b0f1024-a4c1-45bb-9adb-e11bcfb15c5a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fbc927056a0449b4a4b3a2dffbac1a7b" ns3:_="" ns4:_="">
     <xsd:import namespace="30d683a2-8968-4bab-ab75-5e7ac92a4140"/>
@@ -1660,32 +1645,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34829991-9D63-4183-9B9C-943F3B063F3B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="30d683a2-8968-4bab-ab75-5e7ac92a4140"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="7b0f1024-a4c1-45bb-9adb-e11bcfb15c5a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B68D42E-578E-4170-BB84-2395EC602713}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0FF6427-00C3-42B9-A2FD-9CEA3CD59193}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1702,4 +1677,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B68D42E-578E-4170-BB84-2395EC602713}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34829991-9D63-4183-9B9C-943F3B063F3B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="30d683a2-8968-4bab-ab75-5e7ac92a4140"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="7b0f1024-a4c1-45bb-9adb-e11bcfb15c5a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Adimensionnement.xlsx
+++ b/Adimensionnement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blagn771\Documents\Aquaman\Aquaman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD85A0AC-1274-463A-B15F-81372CC9124D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030D8A19-52D4-4CCB-AE5C-8C0E82086897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CECACC56-8669-4314-B5FA-FCBDC609E522}"/>
+    <workbookView xWindow="28680" yWindow="-5205" windowWidth="16440" windowHeight="28440" xr2:uid="{CECACC56-8669-4314-B5FA-FCBDC609E522}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -882,7 +882,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1242,8 +1242,8 @@
         <v>4.0595124999999994</v>
       </c>
       <c r="B19" s="1">
-        <f>F19*B29*(A4/E4)*(A4/E4)</f>
-        <v>2.4357074999999999</v>
+        <f>F19*B29*(A4/E4)*(A4/E4)/2</f>
+        <v>1.21785375</v>
       </c>
       <c r="C19" s="1"/>
       <c r="E19" s="17">
@@ -1457,6 +1457,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100343AB94E490C1E469C434E1FE83E21E8" ma:contentTypeVersion="8" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="4a945fd916df10b55939949b74db3e29">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="30d683a2-8968-4bab-ab75-5e7ac92a4140" xmlns:ns4="7b0f1024-a4c1-45bb-9adb-e11bcfb15c5a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fbc927056a0449b4a4b3a2dffbac1a7b" ns3:_="" ns4:_="">
     <xsd:import namespace="30d683a2-8968-4bab-ab75-5e7ac92a4140"/>
@@ -1645,22 +1660,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34829991-9D63-4183-9B9C-943F3B063F3B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="30d683a2-8968-4bab-ab75-5e7ac92a4140"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="7b0f1024-a4c1-45bb-9adb-e11bcfb15c5a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B68D42E-578E-4170-BB84-2395EC602713}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0FF6427-00C3-42B9-A2FD-9CEA3CD59193}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1677,29 +1702,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B68D42E-578E-4170-BB84-2395EC602713}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34829991-9D63-4183-9B9C-943F3B063F3B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="30d683a2-8968-4bab-ab75-5e7ac92a4140"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="7b0f1024-a4c1-45bb-9adb-e11bcfb15c5a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Adimensionnement.xlsx
+++ b/Adimensionnement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blagn771\Documents\Aquaman\Aquaman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030D8A19-52D4-4CCB-AE5C-8C0E82086897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAF2BF5-2A9F-47D5-ACB6-5CA9B0158399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5205" windowWidth="16440" windowHeight="28440" xr2:uid="{CECACC56-8669-4314-B5FA-FCBDC609E522}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CECACC56-8669-4314-B5FA-FCBDC609E522}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -383,7 +383,7 @@
     <t>eau de mer</t>
   </si>
   <si>
-    <t>25 deg</t>
+    <t>angle</t>
   </si>
 </sst>
 </file>
@@ -537,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -565,6 +565,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -882,7 +883,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,7 +967,7 @@
       <c r="G4" s="6"/>
       <c r="I4" s="24">
         <f>I9*E4</f>
-        <v>96</v>
+        <v>7.1199999999999999E-2</v>
       </c>
       <c r="J4" s="25"/>
       <c r="K4" s="23">
@@ -1048,6 +1049,9 @@
       <c r="G8" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="H8" s="27" t="s">
+        <v>79</v>
+      </c>
       <c r="I8" s="24" t="s">
         <v>56</v>
       </c>
@@ -1065,7 +1069,7 @@
       <c r="B9" s="13"/>
       <c r="C9" s="1">
         <f>2*G9*A9</f>
-        <v>6.6358399999999998E-2</v>
+        <v>8.21642874159451E-2</v>
       </c>
       <c r="E9" s="17">
         <v>1</v>
@@ -1075,18 +1079,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="6">
-        <v>0.46600000000000003</v>
-      </c>
-      <c r="H9" t="s">
-        <v>79</v>
+        <f>H10</f>
+        <v>0.57699640039287292</v>
+      </c>
+      <c r="H9">
+        <v>30</v>
       </c>
       <c r="I9" s="24">
-        <f>3*2^5</f>
-        <v>96</v>
+        <f>0.0712</f>
+        <v>7.1199999999999999E-2</v>
       </c>
       <c r="J9" s="25">
         <f>A9/I9</f>
-        <v>7.4166666666666662E-4</v>
+        <v>1</v>
       </c>
       <c r="K9" s="23">
         <f>B9/J9</f>
@@ -1109,6 +1114,10 @@
       </c>
       <c r="G10" s="6" t="s">
         <v>32</v>
+      </c>
+      <c r="H10">
+        <f>TAN(H9*3.14/180)</f>
+        <v>0.57699640039287292</v>
       </c>
       <c r="I10" s="24" t="s">
         <v>57</v>
@@ -1179,7 +1188,7 @@
       <c r="C14" s="1"/>
       <c r="E14" s="17">
         <f>A14*C9/A4</f>
-        <v>0.61139199999999994</v>
+        <v>0.75701927731544916</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -1457,21 +1466,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100343AB94E490C1E469C434E1FE83E21E8" ma:contentTypeVersion="8" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="4a945fd916df10b55939949b74db3e29">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="30d683a2-8968-4bab-ab75-5e7ac92a4140" xmlns:ns4="7b0f1024-a4c1-45bb-9adb-e11bcfb15c5a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fbc927056a0449b4a4b3a2dffbac1a7b" ns3:_="" ns4:_="">
     <xsd:import namespace="30d683a2-8968-4bab-ab75-5e7ac92a4140"/>
@@ -1660,32 +1654,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34829991-9D63-4183-9B9C-943F3B063F3B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="30d683a2-8968-4bab-ab75-5e7ac92a4140"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="7b0f1024-a4c1-45bb-9adb-e11bcfb15c5a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B68D42E-578E-4170-BB84-2395EC602713}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0FF6427-00C3-42B9-A2FD-9CEA3CD59193}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1702,4 +1686,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B68D42E-578E-4170-BB84-2395EC602713}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34829991-9D63-4183-9B9C-943F3B063F3B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="30d683a2-8968-4bab-ab75-5e7ac92a4140"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="7b0f1024-a4c1-45bb-9adb-e11bcfb15c5a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>